--- a/ASISTENCIA.xlsx
+++ b/ASISTENCIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Desktop\Universidad\CUARTO\1º Cuatrimestre\EGC\Jornada\ENVIAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1558,25 +1558,28 @@
     <xf numFmtId="20" fontId="14" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,12 +1621,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1645,18 +1642,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1675,11 +1660,26 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2007,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X148" sqref="X148"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A155" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2030,7 @@
     <col min="15" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="27.5546875" customWidth="1"/>
     <col min="17" max="17" width="27.44140625" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="18" max="18" width="24.21875" customWidth="1"/>
     <col min="19" max="19" width="18.109375" customWidth="1"/>
     <col min="20" max="20" width="25.88671875" customWidth="1"/>
     <col min="21" max="21" width="26.5546875" customWidth="1"/>
@@ -2044,29 +2044,29 @@
       <c r="B1" s="44"/>
       <c r="C1" s="42"/>
       <c r="D1" s="50"/>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="80" t="s">
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2148,102 +2148,102 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="50"/>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="N3" s="99" t="s">
+      <c r="N3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="60" t="s">
+      <c r="V3" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="60" t="s">
+      <c r="W3" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="50"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
@@ -11872,14 +11872,14 @@
       </c>
       <c r="B174" s="47">
         <f t="shared" si="8"/>
-        <v>0.36805555555555552</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C174" s="58">
         <v>0</v>
       </c>
       <c r="D174" s="52">
         <f t="shared" si="7"/>
-        <v>0.36805555555555552</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E174" s="7">
         <v>3.4722222222222224E-2</v>
@@ -11899,7 +11899,9 @@
       <c r="L174" s="9">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="M174" s="10"/>
+      <c r="M174" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="N174" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -12093,13 +12095,13 @@
       <c r="AC179" s="5"/>
     </row>
     <row r="180" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="93" t="s">
+      <c r="B180" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="C180" s="94"/>
-      <c r="D180" s="94"/>
-      <c r="E180" s="94"/>
-      <c r="F180" s="95"/>
+      <c r="C180" s="89"/>
+      <c r="D180" s="89"/>
+      <c r="E180" s="89"/>
+      <c r="F180" s="90"/>
       <c r="V180" s="5"/>
       <c r="W180" s="5"/>
       <c r="X180" s="5"/>
@@ -12110,11 +12112,11 @@
       <c r="AC180" s="5"/>
     </row>
     <row r="181" spans="2:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="96"/>
-      <c r="C181" s="97"/>
-      <c r="D181" s="97"/>
-      <c r="E181" s="97"/>
-      <c r="F181" s="98"/>
+      <c r="B181" s="91"/>
+      <c r="C181" s="92"/>
+      <c r="D181" s="92"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="93"/>
       <c r="V181" s="5"/>
       <c r="W181" s="5"/>
       <c r="X181" s="5"/>
@@ -12125,15 +12127,15 @@
       <c r="AC181" s="5"/>
     </row>
     <row r="182" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="73" t="s">
+      <c r="B182" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="74"/>
-      <c r="D182" s="73" t="s">
+      <c r="C182" s="75"/>
+      <c r="D182" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="E182" s="82"/>
-      <c r="F182" s="83"/>
+      <c r="E182" s="81"/>
+      <c r="F182" s="82"/>
       <c r="V182" s="5"/>
       <c r="W182" s="5"/>
       <c r="X182" s="5"/>
@@ -12144,17 +12146,17 @@
       <c r="AC182" s="5"/>
     </row>
     <row r="183" spans="2:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="75">
+      <c r="B183" s="76">
         <f>SUM(E177:M177)</f>
         <v>568</v>
       </c>
-      <c r="C183" s="76"/>
-      <c r="D183" s="75">
+      <c r="C183" s="77"/>
+      <c r="D183" s="76">
         <f>SUM(Q177:W177)</f>
         <v>406</v>
       </c>
-      <c r="E183" s="84"/>
-      <c r="F183" s="76"/>
+      <c r="E183" s="83"/>
+      <c r="F183" s="77"/>
       <c r="V183" s="5"/>
       <c r="W183" s="5"/>
       <c r="X183" s="5"/>
@@ -12165,13 +12167,13 @@
       <c r="AC183" s="5"/>
     </row>
     <row r="184" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="73" t="s">
+      <c r="B184" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C184" s="85"/>
-      <c r="D184" s="85"/>
-      <c r="E184" s="85"/>
-      <c r="F184" s="74"/>
+      <c r="C184" s="84"/>
+      <c r="D184" s="84"/>
+      <c r="E184" s="84"/>
+      <c r="F184" s="75"/>
       <c r="V184" s="5"/>
       <c r="W184" s="5"/>
       <c r="X184" s="5"/>
@@ -12182,14 +12184,14 @@
       <c r="AC184" s="5"/>
     </row>
     <row r="185" spans="2:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="86">
+      <c r="B185" s="85">
         <f>AVERAGE(B5:B175)</f>
-        <v>0.2203182531947151</v>
-      </c>
-      <c r="C185" s="87"/>
-      <c r="D185" s="87"/>
-      <c r="E185" s="87"/>
-      <c r="F185" s="88"/>
+        <v>0.22048069633961437</v>
+      </c>
+      <c r="C185" s="86"/>
+      <c r="D185" s="86"/>
+      <c r="E185" s="86"/>
+      <c r="F185" s="87"/>
       <c r="V185" s="5"/>
       <c r="W185" s="5"/>
       <c r="X185" s="5"/>
@@ -12200,13 +12202,13 @@
       <c r="AC185" s="5"/>
     </row>
     <row r="186" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="67" t="s">
+      <c r="B186" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="C186" s="68"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="68"/>
-      <c r="F186" s="69"/>
+      <c r="C186" s="69"/>
+      <c r="D186" s="69"/>
+      <c r="E186" s="69"/>
+      <c r="F186" s="70"/>
       <c r="V186" s="5"/>
       <c r="W186" s="5"/>
       <c r="X186" s="5"/>
@@ -12217,14 +12219,14 @@
       <c r="AC186" s="5"/>
     </row>
     <row r="187" spans="2:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="77">
+      <c r="B187" s="78">
         <f>AVERAGEIF(B5:B175,"&gt;0")*24</f>
-        <v>7.3511065943992744</v>
-      </c>
-      <c r="C187" s="78"/>
-      <c r="D187" s="78"/>
-      <c r="E187" s="78"/>
-      <c r="F187" s="79"/>
+        <v>7.3565266485998162</v>
+      </c>
+      <c r="C187" s="79"/>
+      <c r="D187" s="79"/>
+      <c r="E187" s="79"/>
+      <c r="F187" s="80"/>
       <c r="V187" s="5"/>
       <c r="W187" s="5"/>
       <c r="X187" s="5"/>
@@ -12235,13 +12237,13 @@
       <c r="AC187" s="5"/>
     </row>
     <row r="188" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="67" t="s">
+      <c r="B188" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="C188" s="68"/>
-      <c r="D188" s="68"/>
-      <c r="E188" s="68"/>
-      <c r="F188" s="69"/>
+      <c r="C188" s="69"/>
+      <c r="D188" s="69"/>
+      <c r="E188" s="69"/>
+      <c r="F188" s="70"/>
       <c r="V188" s="5"/>
       <c r="W188" s="5"/>
       <c r="X188" s="5"/>
@@ -12252,14 +12254,14 @@
       <c r="AC188" s="5"/>
     </row>
     <row r="189" spans="2:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="70">
+      <c r="B189" s="71">
         <f>SUM(E177:W177)</f>
         <v>1148</v>
       </c>
-      <c r="C189" s="71"/>
-      <c r="D189" s="71"/>
-      <c r="E189" s="71"/>
-      <c r="F189" s="72"/>
+      <c r="C189" s="72"/>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="73"/>
       <c r="V189" s="5"/>
       <c r="W189" s="5"/>
       <c r="X189" s="5"/>
@@ -13085,29 +13087,6 @@
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="37">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B180:F181"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E1:M1"/>
@@ -13122,6 +13101,29 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N1:W1"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B180:F181"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="F176 F178 F190:F1000">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
